--- a/docs/THOMAS.xlsx
+++ b/docs/THOMAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="41235" windowHeight="10290"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="41235" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>Criticidade</t>
   </si>
@@ -276,36 +276,24 @@
     <t>Bebidas</t>
   </si>
   <si>
-    <t>23/7/2012</t>
-  </si>
-  <si>
     <t>Implantacao IBM HBSIS Ambev</t>
   </si>
   <si>
     <t>Permanente</t>
   </si>
   <si>
-    <t>23/07/2012</t>
-  </si>
-  <si>
     <t>Implantação</t>
   </si>
   <si>
     <t>Implantação Concluída</t>
   </si>
   <si>
-    <t>Exportação pesquisa Thomás 2.0</t>
-  </si>
-  <si>
     <t>extranet</t>
   </si>
   <si>
     <t>EXTRANET</t>
   </si>
   <si>
-    <t>Exportação arquivos pesquisa Thomas 2.0</t>
-  </si>
-  <si>
     <t>HBSIS</t>
   </si>
   <si>
@@ -327,80 +315,31 @@
     <t>Cíclica</t>
   </si>
   <si>
-    <t>Chegada de arquivo</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
-    <t>ACSLE2</t>
-  </si>
-  <si>
-    <t>3/9/2007</t>
-  </si>
-  <si>
-    <t>Implantacao IBM CPM Ambev</t>
-  </si>
-  <si>
-    <t>25/07/2003</t>
-  </si>
-  <si>
-    <t>CL_N07_EX2A_01_01A_ACS0002XBDS_01</t>
-  </si>
-  <si>
-    <t>_x000D_Esta interface tem como objetivo enviar diariamente para a Extranet - os arquivos de pesquisa Thomás</t>
-  </si>
-  <si>
-    <t>Extranet</t>
-  </si>
-  <si>
-    <t>Thomas Promax x Extranet (Revendas)</t>
-  </si>
-  <si>
-    <t>CPM</t>
-  </si>
-  <si>
-    <t>Diária</t>
-  </si>
-  <si>
-    <t>/amb/eventbin/EX2A_01_01A.sh</t>
-  </si>
-  <si>
-    <t>acs0002xbds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMAS20_REV_????????_???????.[Zz][Ii][Pp] </t>
-  </si>
-  <si>
-    <t>acs0002xbds - /crr/rcv</t>
-  </si>
-  <si>
-    <t>SFTP</t>
-  </si>
-  <si>
-    <t>acsle2 - /crr_e/thomas</t>
-  </si>
-  <si>
-    <t>Este arquivo será movido desta área da extranet, por tanto não haverá limpeza</t>
-  </si>
-  <si>
-    <t>THOMAS_REV</t>
-  </si>
-  <si>
-    <t>CL_N07_EX2A_01_02A_ACSLE2_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo dia após a execução do JOB CL_N07_EX2A_01_01A_ACS0002XBDS_01
-</t>
-  </si>
-  <si>
     <t>Execução de JOB</t>
   </si>
   <si>
-    <t>/amb/eventbin/EX2A_01_02A.sh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo dia Por chegada do arquivo THOMAS20_REV_*.[Zz][Ii][Pp] na pasta /crr/rcv No servidor ACS0002XBDS </t>
+    <t>31/7/2012</t>
+  </si>
+  <si>
+    <t>31/07/2012</t>
+  </si>
+  <si>
+    <t>CL_N07_2Z2A_03_01A_ACS0002XBDS_01</t>
+  </si>
+  <si>
+    <t>Exportação arquivos Plano de Contas Revendas</t>
+  </si>
+  <si>
+    <t>TPCONTXML</t>
+  </si>
+  <si>
+    <t>/amb/eventbin/2Z2A_03_01A.sh</t>
+  </si>
+  <si>
+    <t>ACS0002XBDS</t>
   </si>
 </sst>
 </file>
@@ -757,11 +696,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB3"/>
+  <dimension ref="A1:CB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CB3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1007,7 +944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:80" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -1057,113 +994,111 @@
         <v>83</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="BB2" s="3" t="s">
         <v>83</v>
@@ -1178,10 +1113,10 @@
         <v>83</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BH2" s="3" t="s">
         <v>83</v>
@@ -1244,236 +1179,6 @@
         <v>83</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:80" ht="158.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
